--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,16 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabagita Ivan\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7131AF47-96EE-472F-BC75-F9C35FC8E800}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C940EDE-3C6E-4A32-9312-24F8DE0356F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="7" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
   </bookViews>
   <sheets>
-    <sheet name="4.1" sheetId="1" r:id="rId1"/>
-    <sheet name="4.2" sheetId="2" r:id="rId2"/>
-    <sheet name="4.3" sheetId="3" r:id="rId3"/>
-    <sheet name="4.4" sheetId="4" r:id="rId4"/>
-    <sheet name="4.5" sheetId="5" r:id="rId5"/>
+    <sheet name="3.1" sheetId="6" r:id="rId1"/>
+    <sheet name="3.2" sheetId="7" r:id="rId2"/>
+    <sheet name="3.3" sheetId="8" r:id="rId3"/>
+    <sheet name="3.4" sheetId="9" r:id="rId4"/>
+    <sheet name="3.5" sheetId="10" r:id="rId5"/>
+    <sheet name="3.6" sheetId="11" r:id="rId6"/>
+    <sheet name="3.7" sheetId="12" r:id="rId7"/>
+    <sheet name="3.8" sheetId="13" r:id="rId8"/>
+    <sheet name="3.9" sheetId="14" r:id="rId9"/>
+    <sheet name="4.1" sheetId="1" r:id="rId10"/>
+    <sheet name="4.2" sheetId="2" r:id="rId11"/>
+    <sheet name="4.3" sheetId="3" r:id="rId12"/>
+    <sheet name="4.4" sheetId="4" r:id="rId13"/>
+    <sheet name="4.5" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -83,6 +92,249 @@
   </si>
   <si>
     <t>Generate Button</t>
+  </si>
+  <si>
+    <t>Function Description</t>
+  </si>
+  <si>
+    <t>Allow user to access Collect application.</t>
+  </si>
+  <si>
+    <t>Allow user to record user’s speech.</t>
+  </si>
+  <si>
+    <t>Allow user to train collected data.</t>
+  </si>
+  <si>
+    <t>Allow user to access Mimic application</t>
+  </si>
+  <si>
+    <t>Allow user to identify user’s speech.</t>
+  </si>
+  <si>
+    <t>Allow user to generate speech.</t>
+  </si>
+  <si>
+    <t>User Case Name</t>
+  </si>
+  <si>
+    <t>Access Collect application</t>
+  </si>
+  <si>
+    <t>Use Case ID</t>
+  </si>
+  <si>
+    <t>UC01</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Primary Business Actor</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Primary System Actor</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Another Participating Actor</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>This use-case describes the event when user opens Collect application through browser.</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>User opens Collect application.</t>
+  </si>
+  <si>
+    <t>Typical Course of Event</t>
+  </si>
+  <si>
+    <t>Actor Action</t>
+  </si>
+  <si>
+    <t>System Response</t>
+  </si>
+  <si>
+    <t>Click Start button.</t>
+  </si>
+  <si>
+    <t>Phonemes page is shown.</t>
+  </si>
+  <si>
+    <t>Alternate Course</t>
+  </si>
+  <si>
+    <t>Post Condition</t>
+  </si>
+  <si>
+    <t>Home page is shown.</t>
+  </si>
+  <si>
+    <t>Business Rule</t>
+  </si>
+  <si>
+    <t>Implementation Constraint and Specifications</t>
+  </si>
+  <si>
+    <t>Record speech</t>
+  </si>
+  <si>
+    <t>UC02</t>
+  </si>
+  <si>
+    <t>This use-case describes the event when user opens Phonemes page.</t>
+  </si>
+  <si>
+    <t>User clicks Start button from Home page.</t>
+  </si>
+  <si>
+    <t>User opens Phonemes page.</t>
+  </si>
+  <si>
+    <t>Click Record button and say asked phoneme.</t>
+  </si>
+  <si>
+    <t>Record the speech and upload to save it.</t>
+  </si>
+  <si>
+    <t>Click Next button.</t>
+  </si>
+  <si>
+    <t>Next Phonemes or Home page is shown.</t>
+  </si>
+  <si>
+    <t>Recorded speech is played on audio element.</t>
+  </si>
+  <si>
+    <t>Train model</t>
+  </si>
+  <si>
+    <t>UC03</t>
+  </si>
+  <si>
+    <t>This use-case describes the event when user start Train application.</t>
+  </si>
+  <si>
+    <t>User starts Train application.</t>
+  </si>
+  <si>
+    <t>Load and extract collected data.</t>
+  </si>
+  <si>
+    <t>Split into train, validation, and test data.</t>
+  </si>
+  <si>
+    <t>Train the model with train data and validate with validation data.</t>
+  </si>
+  <si>
+    <t>Test the model with test data and insert the model to MongoDB.</t>
+  </si>
+  <si>
+    <t>Model is trained and inserted in MongoDB.</t>
+  </si>
+  <si>
+    <t>None.</t>
+  </si>
+  <si>
+    <t>Access Mimic application</t>
+  </si>
+  <si>
+    <t>UC04</t>
+  </si>
+  <si>
+    <t>This use-case describes the event when user opens Mimic application through browser.</t>
+  </si>
+  <si>
+    <t>User opens Mimic application.</t>
+  </si>
+  <si>
+    <t>Click Identify Speech or Generate Speech button.</t>
+  </si>
+  <si>
+    <t>Identify or Generate page is shown.</t>
+  </si>
+  <si>
+    <t>Identify speech</t>
+  </si>
+  <si>
+    <t>UC05</t>
+  </si>
+  <si>
+    <t>This use-case describes the event when user opens Identify page.</t>
+  </si>
+  <si>
+    <t>User clicks Identify Speech button from Home page.</t>
+  </si>
+  <si>
+    <t>User opens Identify page.</t>
+  </si>
+  <si>
+    <t>Click Record button and say something.</t>
+  </si>
+  <si>
+    <t>Insert speech ID in input element and click Identify Speech button.</t>
+  </si>
+  <si>
+    <t>Recorded speech is identified with trained model.</t>
+  </si>
+  <si>
+    <t>Speech data is updated to MongoDB if recognized.</t>
+  </si>
+  <si>
+    <t>Click Finish button.</t>
+  </si>
+  <si>
+    <t>Information whether recognized or not is alerted in the browser.</t>
+  </si>
+  <si>
+    <t>UC06</t>
+  </si>
+  <si>
+    <t>This use-case describes the event when user opens Generate page.</t>
+  </si>
+  <si>
+    <t>User clicks Generate Speech button from Home page.</t>
+  </si>
+  <si>
+    <t>User opens Generate page.</t>
+  </si>
+  <si>
+    <t>Load speech data from MongoDB.</t>
+  </si>
+  <si>
+    <t>Choose speech ID from datalist element.</t>
+  </si>
+  <si>
+    <t>Speech ID selected.</t>
+  </si>
+  <si>
+    <t>Insert text in input element and click Generate Speech button.</t>
+  </si>
+  <si>
+    <t>Speech is generated based selected speech ID and inserted text.</t>
+  </si>
+  <si>
+    <t>Generated speech is played on audio element.</t>
+  </si>
+  <si>
+    <t>Convert data to model's input and output.</t>
   </si>
 </sst>
 </file>
@@ -119,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -179,11 +431,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +485,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,6 +832,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C3623-1849-4364-A121-3CC58B3A593B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AA5BC9-9B12-42A4-8F08-F1419B3E93EE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -566,7 +931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91D6CBA-17A5-4190-ABC5-564839B3224C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -622,7 +987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E224D0-200E-41A9-B19C-E2133B5E8225}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -686,7 +1051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE65017-9CDE-4CF7-997D-633D9EE1D915}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -768,11 +1133,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7219417-6B27-4597-BE69-7DA8FCC9F567}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -840,4 +1205,1224 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC17CEB5-8FBB-4E9F-8F9C-BD5A05E7803D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF226D0B-BA9C-4658-8347-13E2B826A0E7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E40F098-12DE-42B0-9468-12DB31720EDB}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1983E53-C141-4943-BB04-74C051C771FA}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0234292-5828-4165-B607-3B02E3A8C01F}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E22A9EE-E7B2-42B9-B7E2-7FB749DC987B}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDB294D-0E0B-4758-949B-0D567430F7C6}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC2E2B-2547-4F5A-B495-04058B099934}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabagita Ivan\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C940EDE-3C6E-4A32-9312-24F8DE0356F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC983136-3BFC-4872-9ADD-03BBD2669C4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="7" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,12 @@
     <sheet name="4.3" sheetId="3" r:id="rId12"/>
     <sheet name="4.4" sheetId="4" r:id="rId13"/>
     <sheet name="4.5" sheetId="5" r:id="rId14"/>
+    <sheet name="6.1" sheetId="15" r:id="rId15"/>
+    <sheet name="6.2" sheetId="16" r:id="rId16"/>
+    <sheet name="6.3" sheetId="17" r:id="rId17"/>
+    <sheet name="6.4" sheetId="18" r:id="rId18"/>
+    <sheet name="6.5" sheetId="19" r:id="rId19"/>
+    <sheet name="6.6" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="166">
   <si>
     <t>No</t>
   </si>
@@ -175,9 +181,6 @@
     <t>Click Start button.</t>
   </si>
   <si>
-    <t>Phonemes page is shown.</t>
-  </si>
-  <si>
     <t>Alternate Course</t>
   </si>
   <si>
@@ -199,27 +202,15 @@
     <t>UC02</t>
   </si>
   <si>
-    <t>This use-case describes the event when user opens Phonemes page.</t>
-  </si>
-  <si>
     <t>User clicks Start button from Home page.</t>
   </si>
   <si>
-    <t>User opens Phonemes page.</t>
-  </si>
-  <si>
-    <t>Click Record button and say asked phoneme.</t>
-  </si>
-  <si>
     <t>Record the speech and upload to save it.</t>
   </si>
   <si>
     <t>Click Next button.</t>
   </si>
   <si>
-    <t>Next Phonemes or Home page is shown.</t>
-  </si>
-  <si>
     <t>Recorded speech is played on audio element.</t>
   </si>
   <si>
@@ -335,6 +326,222 @@
   </si>
   <si>
     <t>Convert data to model's input and output.</t>
+  </si>
+  <si>
+    <t>Syllables page is shown.</t>
+  </si>
+  <si>
+    <t>This use-case describes the event when user opens Syllables page.</t>
+  </si>
+  <si>
+    <t>User opens Syllables page.</t>
+  </si>
+  <si>
+    <t>Next Syllables or Home page is shown.</t>
+  </si>
+  <si>
+    <t>Click Record button and say asked syllable.</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Access Home page</t>
+  </si>
+  <si>
+    <t>Home page is shown</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Access Syllables page</t>
+  </si>
+  <si>
+    <t>Syllables page is shown</t>
+  </si>
+  <si>
+    <t>Process upload record request</t>
+  </si>
+  <si>
+    <t>Printed process results information on the console</t>
+  </si>
+  <si>
+    <t>Direct to Syllables page</t>
+  </si>
+  <si>
+    <t>Directed to Syllables page</t>
+  </si>
+  <si>
+    <t>Direct to Mimic application Home page</t>
+  </si>
+  <si>
+    <t>Directed to Mimic application Home page</t>
+  </si>
+  <si>
+    <t>Upload the record</t>
+  </si>
+  <si>
+    <t>Audio element is shown with the user record</t>
+  </si>
+  <si>
+    <t>Direct to the next Syllables page or direct back to Home page</t>
+  </si>
+  <si>
+    <t>Directed to the next Syllables page or Directed back to Home Page</t>
+  </si>
+  <si>
+    <t>Load and split collected data</t>
+  </si>
+  <si>
+    <t>Printed information on the console</t>
+  </si>
+  <si>
+    <t>Extract the data</t>
+  </si>
+  <si>
+    <t>Get corresponding batch data</t>
+  </si>
+  <si>
+    <t>Train the TensorFlow model to fit batch train data</t>
+  </si>
+  <si>
+    <t>Test the TensorFlow model from test data</t>
+  </si>
+  <si>
+    <t>Save the TensorFlow model to database</t>
+  </si>
+  <si>
+    <t>Recorded document in mimic_speech database models collection</t>
+  </si>
+  <si>
+    <t>Access Identify page</t>
+  </si>
+  <si>
+    <t>Identify page is shown</t>
+  </si>
+  <si>
+    <t>Access Generate page</t>
+  </si>
+  <si>
+    <t>Generate page is shown</t>
+  </si>
+  <si>
+    <t>Process upload record on Identify request</t>
+  </si>
+  <si>
+    <t>Process identify speech on Identify request</t>
+  </si>
+  <si>
+    <t>Process load speech data on Generate request</t>
+  </si>
+  <si>
+    <t>Process generate speech on Generate request</t>
+  </si>
+  <si>
+    <t>Direct to Identify page</t>
+  </si>
+  <si>
+    <t>Directed to Identify page</t>
+  </si>
+  <si>
+    <t>Direct to Generate page</t>
+  </si>
+  <si>
+    <t>Directed to Generate page</t>
+  </si>
+  <si>
+    <t>Direct to Collect application Home page</t>
+  </si>
+  <si>
+    <t>Directed to Collect application Home page</t>
+  </si>
+  <si>
+    <t>Send form for identify speech</t>
+  </si>
+  <si>
+    <t>Alert information despite success or error in the process</t>
+  </si>
+  <si>
+    <t>Direct back to Home page from Identify page</t>
+  </si>
+  <si>
+    <t>Directed back to Home Page</t>
+  </si>
+  <si>
+    <t>Load speech data</t>
+  </si>
+  <si>
+    <t>Datalist element store the speech data or alert if no speech data is found</t>
+  </si>
+  <si>
+    <t>Send form for generate speech</t>
+  </si>
+  <si>
+    <t>Audio element is shown with the generated speech or alert if error is occurred</t>
+  </si>
+  <si>
+    <t>Direct back to Home page from Generate page</t>
+  </si>
+  <si>
+    <t>Syllable</t>
+  </si>
+  <si>
+    <t>Noisy Background</t>
+  </si>
+  <si>
+    <t>Semi Noisy Background</t>
+  </si>
+  <si>
+    <t>No Noisy Background</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>/3</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>Unknown 1</t>
+  </si>
+  <si>
+    <t>Unknown 2</t>
+  </si>
+  <si>
+    <t>Unknown 3</t>
   </si>
 </sst>
 </file>
@@ -489,13 +696,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,13 +714,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -835,12 +1042,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C3623-1849-4364-A121-3CC58B3A593B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -882,6 +1090,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -939,6 +1148,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -995,6 +1205,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1061,6 +1272,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1143,6 +1355,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,6 +1413,968 @@
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED1886F-FB36-484B-9C90-633822D1B9B6}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C103172-6AE3-4850-B028-8EAC9886CE1D}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2665DF4-BB57-4BBC-912E-60371A920537}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5626A6E2-3CB9-4228-9242-32A8CDB5C5F8}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D33671-D8B4-4307-A64E-64BE16F5FD15}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1217,6 +2392,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1234,6 +2410,231 @@
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F672DFE2-C1D2-4C9E-9FCE-701CE27F0D30}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1251,6 +2652,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1296,7 +2698,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,13 +2712,13 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1325,7 +2727,7 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1334,7 +2736,7 @@
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1343,7 +2745,7 @@
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1352,7 +2754,7 @@
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1361,7 +2763,7 @@
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1370,7 +2772,7 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1379,7 +2781,7 @@
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1391,25 +2793,25 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -1417,17 +2819,17 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>36</v>
@@ -1435,8 +2837,8 @@
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>50</v>
+      <c r="A15" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -1445,11 +2847,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -1459,6 +2856,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1469,7 +2871,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,22 +2885,22 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1507,7 +2909,7 @@
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1516,7 +2918,7 @@
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1525,7 +2927,7 @@
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1534,29 +2936,29 @@
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -1564,54 +2966,54 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>57</v>
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>49</v>
+      <c r="A15" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -1619,8 +3021,8 @@
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>50</v>
+      <c r="A16" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>36</v>
@@ -1629,11 +3031,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B14:C14"/>
@@ -1643,6 +3040,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1667,22 +3069,22 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="7"/>
+      <c r="B1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1691,7 +3093,7 @@
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1700,7 +3102,7 @@
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1709,7 +3111,7 @@
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1718,16 +3120,16 @@
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1736,11 +3138,11 @@
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -1748,51 +3150,51 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>65</v>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>66</v>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>98</v>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
-        <v>67</v>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>68</v>
+      <c r="A15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>46</v>
+      <c r="A16" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>36</v>
@@ -1800,26 +3202,26 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>47</v>
+      <c r="A17" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>36</v>
@@ -1828,11 +3230,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -1842,6 +3239,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1866,22 +3268,22 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="7"/>
+      <c r="B1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1890,7 +3292,7 @@
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1899,7 +3301,7 @@
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1908,7 +3310,7 @@
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1917,16 +3319,16 @@
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1935,11 +3337,11 @@
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -1947,25 +3349,25 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>76</v>
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>46</v>
+      <c r="A12" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -1973,17 +3375,17 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>36</v>
@@ -1991,8 +3393,8 @@
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>50</v>
+      <c r="A15" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -2001,11 +3403,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -2015,6 +3412,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2024,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDB294D-0E0B-4758-949B-0D567430F7C6}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -2039,22 +3441,22 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="7"/>
+      <c r="B1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2063,7 +3465,7 @@
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2072,7 +3474,7 @@
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2081,7 +3483,7 @@
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2090,29 +3492,29 @@
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -2120,77 +3522,77 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>57</v>
+      <c r="B11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>60</v>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>84</v>
+      <c r="B13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
-        <v>85</v>
+      <c r="A14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>36</v>
@@ -2198,8 +3600,8 @@
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>50</v>
+      <c r="A19" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>36</v>
@@ -2208,11 +3610,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B17:C17"/>
@@ -2222,6 +3619,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2246,22 +3648,22 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="7"/>
+      <c r="B1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2270,7 +3672,7 @@
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2279,7 +3681,7 @@
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2288,7 +3690,7 @@
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2297,29 +3699,29 @@
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -2327,70 +3729,70 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>92</v>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>94</v>
+      <c r="B12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>96</v>
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>36</v>
@@ -2398,8 +3800,8 @@
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>50</v>
+      <c r="A18" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>36</v>
@@ -2408,11 +3810,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B16:C16"/>
@@ -2422,6 +3819,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabagita Ivan\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC983136-3BFC-4872-9ADD-03BBD2669C4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3AC47-5D5C-45A5-A6AB-68FF4D90649F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="13" activeTab="19" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="165">
   <si>
     <t>No</t>
   </si>
@@ -509,9 +509,6 @@
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
   <si>
     <t>na</t>
@@ -705,16 +702,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1042,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C3623-1849-4364-A121-3CC58B3A593B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1934,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5626A6E2-3CB9-4228-9242-32A8CDB5C5F8}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>156</v>
@@ -2028,7 +2025,7 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>157</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>158</v>
@@ -2056,7 +2053,7 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>159</v>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>160</v>
@@ -2084,7 +2081,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>161</v>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>162</v>
@@ -2112,7 +2109,7 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>163</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>164</v>
@@ -2135,20 +2132,6 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2159,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D33671-D8B4-4307-A64E-64BE16F5FD15}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,7 +2222,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>156</v>
@@ -2253,7 +2236,7 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>157</v>
@@ -2267,7 +2250,7 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>158</v>
@@ -2281,7 +2264,7 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>159</v>
@@ -2295,7 +2278,7 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>160</v>
@@ -2309,7 +2292,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>161</v>
@@ -2323,7 +2306,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>162</v>
@@ -2337,7 +2320,7 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>163</v>
@@ -2351,7 +2334,7 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>164</v>
@@ -2360,20 +2343,6 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2419,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F672DFE2-C1D2-4C9E-9FCE-701CE27F0D30}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2468,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>156</v>
@@ -2513,7 +2482,7 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>157</v>
@@ -2527,7 +2496,7 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>158</v>
@@ -2541,7 +2510,7 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>159</v>
@@ -2555,7 +2524,7 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>160</v>
@@ -2569,7 +2538,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>161</v>
@@ -2583,7 +2552,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>162</v>
@@ -2597,7 +2566,7 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>163</v>
@@ -2611,7 +2580,7 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>164</v>
@@ -2620,20 +2589,6 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2721,76 +2676,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2801,7 +2756,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
@@ -2813,40 +2768,45 @@
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -2856,11 +2816,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2894,76 +2849,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2974,7 +2929,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
@@ -2983,7 +2938,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2994,7 +2949,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
@@ -3006,31 +2961,36 @@
       <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B14:C14"/>
@@ -3040,11 +3000,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3078,76 +3033,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3186,7 +3141,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>63</v>
@@ -3196,40 +3151,45 @@
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -3239,11 +3199,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3277,76 +3232,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3357,7 +3312,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
@@ -3369,40 +3324,45 @@
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -3412,11 +3372,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3450,76 +3405,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3555,14 +3510,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3573,7 +3528,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
         <v>81</v>
       </c>
@@ -3585,31 +3540,36 @@
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B17:C17"/>
@@ -3619,11 +3579,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3657,76 +3612,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3753,7 +3708,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
@@ -3762,7 +3717,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -3773,7 +3728,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>81</v>
       </c>
@@ -3785,31 +3740,36 @@
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B16:C16"/>
@@ -3819,11 +3779,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabagita Ivan\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3AC47-5D5C-45A5-A6AB-68FF4D90649F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B63C94-201A-4DE5-AB15-52D5CFF6AB39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="13" activeTab="19" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="16" activeTab="25" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="6" r:id="rId1"/>
@@ -30,9 +30,18 @@
     <sheet name="6.1" sheetId="15" r:id="rId15"/>
     <sheet name="6.2" sheetId="16" r:id="rId16"/>
     <sheet name="6.3" sheetId="17" r:id="rId17"/>
-    <sheet name="6.4" sheetId="18" r:id="rId18"/>
-    <sheet name="6.5" sheetId="19" r:id="rId19"/>
-    <sheet name="6.6" sheetId="20" r:id="rId20"/>
+    <sheet name="6.4" sheetId="21" r:id="rId18"/>
+    <sheet name="6.5" sheetId="22" r:id="rId19"/>
+    <sheet name="6.6" sheetId="23" r:id="rId20"/>
+    <sheet name="6.7" sheetId="24" r:id="rId21"/>
+    <sheet name="6.8" sheetId="25" r:id="rId22"/>
+    <sheet name="6.9" sheetId="26" r:id="rId23"/>
+    <sheet name="6.10" sheetId="27" r:id="rId24"/>
+    <sheet name="6.11" sheetId="28" r:id="rId25"/>
+    <sheet name="6.12" sheetId="29" r:id="rId26"/>
+    <sheet name="6.13" sheetId="30" r:id="rId27"/>
+    <sheet name="6.14" sheetId="31" r:id="rId28"/>
+    <sheet name="6.15" sheetId="32" r:id="rId29"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="186">
   <si>
     <t>No</t>
   </si>
@@ -490,24 +499,15 @@
     <t>Direct back to Home page from Generate page</t>
   </si>
   <si>
-    <t>Syllable</t>
-  </si>
-  <si>
     <t>Noisy Background</t>
   </si>
   <si>
     <t>Semi Noisy Background</t>
   </si>
   <si>
-    <t>No Noisy Background</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>/3</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -539,13 +539,133 @@
   </si>
   <si>
     <t>Unknown 3</t>
+  </si>
+  <si>
+    <t>Spoken Syllable</t>
+  </si>
+  <si>
+    <t>Correct Result</t>
+  </si>
+  <si>
+    <t>(a)</t>
+  </si>
+  <si>
+    <t>(unknown)</t>
+  </si>
+  <si>
+    <t>(na)</t>
+  </si>
+  <si>
+    <t>(ri)</t>
+  </si>
+  <si>
+    <t>(ma)</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>(kan)</t>
+  </si>
+  <si>
+    <t>(ku)</t>
+  </si>
+  <si>
+    <t>(mu)</t>
+  </si>
+  <si>
+    <t>(o)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unknown 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(mi)</t>
+    </r>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>(silent)</t>
+  </si>
+  <si>
+    <t>(mi)</t>
+  </si>
+  <si>
+    <t>(i)</t>
+  </si>
+  <si>
+    <t>(di)</t>
+  </si>
+  <si>
+    <t>Not Noisy Background</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(unknown)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">60 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(unknown)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">100 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(unknown)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +686,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -575,7 +702,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -672,11 +799,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,16 +860,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,6 +880,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1930,423 +2130,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5626A6E2-3CB9-4228-9242-32A8CDB5C5F8}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB235EE6-0BED-45E7-9E95-2AAA9EE97E66}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="17">
+        <v>52</v>
+      </c>
+      <c r="D3" s="17">
+        <v>100</v>
+      </c>
+      <c r="E3" s="17">
+        <v>100</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C5" s="17">
+        <v>62</v>
+      </c>
+      <c r="D5" s="17">
+        <v>85</v>
+      </c>
+      <c r="E5" s="17">
+        <v>96</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="C7" s="17">
+        <v>100</v>
+      </c>
+      <c r="D7" s="17">
+        <v>86</v>
+      </c>
+      <c r="E7" s="17">
+        <v>100</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C9" s="17">
+        <v>100</v>
+      </c>
+      <c r="D9" s="17">
+        <v>84</v>
+      </c>
+      <c r="E9" s="17">
+        <v>100</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C11" s="17">
+        <v>99</v>
+      </c>
+      <c r="D11" s="17">
+        <v>71</v>
+      </c>
+      <c r="E11" s="17">
+        <v>88</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C13" s="17">
+        <v>59</v>
+      </c>
+      <c r="D13" s="17">
+        <v>100</v>
+      </c>
+      <c r="E13" s="17">
+        <v>97</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C15" s="26">
+        <v>50</v>
+      </c>
+      <c r="D15" s="26">
+        <v>100</v>
+      </c>
+      <c r="E15" s="26">
+        <v>92</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C17" s="17">
+        <v>100</v>
+      </c>
+      <c r="D17" s="17">
+        <v>85</v>
+      </c>
+      <c r="E17" s="17">
+        <v>100</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C19" s="17">
+        <v>72</v>
+      </c>
+      <c r="D19" s="17">
+        <v>61</v>
+      </c>
+      <c r="E19" s="17">
+        <v>79</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>10</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C21" s="26">
+        <v>99</v>
+      </c>
+      <c r="D21" s="26">
+        <v>100</v>
+      </c>
+      <c r="E21" s="26">
+        <v>99</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C23" s="17">
+        <v>100</v>
+      </c>
+      <c r="D23" s="17">
+        <v>100</v>
+      </c>
+      <c r="E23" s="17">
+        <v>100</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>12</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C25" s="17">
+        <v>100</v>
+      </c>
+      <c r="D25" s="17">
+        <v>51</v>
+      </c>
+      <c r="E25" s="17">
+        <v>96</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="D26" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D33671-D8B4-4307-A64E-64BE16F5FD15}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F6455-69A2-4ED3-AA4B-531CC03D46B0}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="17">
+        <v>100</v>
+      </c>
+      <c r="D3" s="17">
+        <v>100</v>
+      </c>
+      <c r="E3" s="17">
+        <v>100</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C5" s="17">
+        <v>100</v>
+      </c>
+      <c r="D5" s="17">
+        <v>36</v>
+      </c>
+      <c r="E5" s="17">
+        <v>100</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="C7" s="17">
+        <v>97</v>
+      </c>
+      <c r="D7" s="17">
+        <v>48</v>
+      </c>
+      <c r="E7" s="17">
+        <v>99</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C9" s="17">
+        <v>49</v>
+      </c>
+      <c r="D9" s="17">
+        <v>98</v>
+      </c>
+      <c r="E9" s="17">
+        <v>79</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C11" s="17">
+        <v>55</v>
+      </c>
+      <c r="D11" s="17">
+        <v>99</v>
+      </c>
+      <c r="E11" s="17">
+        <v>50</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C13" s="17">
+        <v>57</v>
+      </c>
+      <c r="D13" s="17">
+        <v>100</v>
+      </c>
+      <c r="E13" s="17">
+        <v>100</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C15" s="17">
+        <v>100</v>
+      </c>
+      <c r="D15" s="17">
+        <v>75</v>
+      </c>
+      <c r="E15" s="17">
+        <v>100</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C17" s="17">
+        <v>92</v>
+      </c>
+      <c r="D17" s="17">
+        <v>68</v>
+      </c>
+      <c r="E17" s="17">
+        <v>91</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C19" s="17">
+        <v>100</v>
+      </c>
+      <c r="D19" s="17">
+        <v>94</v>
+      </c>
+      <c r="E19" s="17">
+        <v>100</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>10</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
+      <c r="D21" s="17">
+        <v>99</v>
+      </c>
+      <c r="E21" s="17">
+        <v>100</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C23" s="17">
+        <v>100</v>
+      </c>
+      <c r="D23" s="17">
+        <v>89</v>
+      </c>
+      <c r="E23" s="17">
+        <v>72</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>12</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="C25" s="17">
+        <v>100</v>
+      </c>
+      <c r="D25" s="17">
+        <v>94</v>
+      </c>
+      <c r="E25" s="17">
+        <v>100</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2387,212 +3176,2084 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F672DFE2-C1D2-4C9E-9FCE-701CE27F0D30}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAAF9FA-F3D9-4C22-BE64-9E20341CE5D8}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="17">
+        <v>100</v>
+      </c>
+      <c r="D3" s="17">
+        <v>100</v>
+      </c>
+      <c r="E3" s="17">
+        <v>100</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="17">
+        <v>94</v>
+      </c>
+      <c r="D5" s="17">
+        <v>48</v>
+      </c>
+      <c r="E5" s="17">
+        <v>94</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="17">
+        <v>80</v>
+      </c>
+      <c r="D7" s="17">
+        <v>99</v>
+      </c>
+      <c r="E7" s="17">
+        <v>100</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="17">
+        <v>96</v>
+      </c>
+      <c r="D9" s="17">
+        <v>90</v>
+      </c>
+      <c r="E9" s="17">
+        <v>57</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="17">
+        <v>100</v>
+      </c>
+      <c r="D11" s="17">
+        <v>86</v>
+      </c>
+      <c r="E11" s="17">
+        <v>95</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="17">
+        <v>99</v>
+      </c>
+      <c r="D13" s="17">
+        <v>100</v>
+      </c>
+      <c r="E13" s="17">
+        <v>80</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="17">
+        <v>100</v>
+      </c>
+      <c r="D15" s="17">
+        <v>96</v>
+      </c>
+      <c r="E15" s="17">
+        <v>91</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="17">
+        <v>85</v>
+      </c>
+      <c r="D17" s="17">
+        <v>96</v>
+      </c>
+      <c r="E17" s="17">
+        <v>100</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="17">
+        <v>92</v>
+      </c>
+      <c r="D19" s="17">
+        <v>100</v>
+      </c>
+      <c r="E19" s="17">
+        <v>100</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>10</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="26">
+        <v>98</v>
+      </c>
+      <c r="D21" s="26">
+        <v>98</v>
+      </c>
+      <c r="E21" s="26">
+        <v>98</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="17">
+        <v>100</v>
+      </c>
+      <c r="D23" s="17">
+        <v>98</v>
+      </c>
+      <c r="E23" s="17">
+        <v>65</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>12</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="17">
+        <v>54</v>
+      </c>
+      <c r="D25" s="17">
+        <v>100</v>
+      </c>
+      <c r="E25" s="17">
+        <v>67</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D21D3-314A-4749-8C34-D06786D3AE8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04D4AB-F3EF-43C2-BE11-8B76C72C9550}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE69C378-7CEF-4D0C-943B-C5293127ACA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB9F02B-1A08-466C-8127-2C1E153A2A6A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A17526-1A85-46EF-B7A0-CEFEEDB9C956}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FED96E-7886-433A-9289-8A2020F935CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H13:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04000B9-11A2-439A-84D6-38C2103A3796}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="A1:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="17">
+        <v>100</v>
+      </c>
+      <c r="D3" s="17">
+        <v>99</v>
+      </c>
+      <c r="E3" s="17">
+        <v>94</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="17">
+        <v>97</v>
+      </c>
+      <c r="D5" s="17">
+        <v>99</v>
+      </c>
+      <c r="E5" s="17">
+        <v>99</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="17">
+        <v>100</v>
+      </c>
+      <c r="D7" s="17">
+        <v>99</v>
+      </c>
+      <c r="E7" s="17">
+        <v>99</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="17">
+        <v>93</v>
+      </c>
+      <c r="D9" s="17">
+        <v>99</v>
+      </c>
+      <c r="E9" s="17">
+        <v>100</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="17">
+        <v>55</v>
+      </c>
+      <c r="D11" s="17">
+        <v>99</v>
+      </c>
+      <c r="E11" s="17">
+        <v>43</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="17">
+        <v>99</v>
+      </c>
+      <c r="D13" s="17">
+        <v>54</v>
+      </c>
+      <c r="E13" s="17">
+        <v>99</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="17">
+        <v>97</v>
+      </c>
+      <c r="D15" s="17">
+        <v>74</v>
+      </c>
+      <c r="E15" s="17">
+        <v>100</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="17">
+        <v>68</v>
+      </c>
+      <c r="D17" s="17">
+        <v>92</v>
+      </c>
+      <c r="E17" s="17">
+        <v>52</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="18">
+        <v>-52</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="17">
+        <v>48</v>
+      </c>
+      <c r="D19" s="17">
+        <v>22</v>
+      </c>
+      <c r="E19" s="17">
+        <v>99</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>10</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="17">
+        <v>100</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="17">
+        <v>100</v>
+      </c>
+      <c r="D23" s="17">
+        <v>100</v>
+      </c>
+      <c r="E23" s="17">
+        <v>100</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>12</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="17">
+        <v>55</v>
+      </c>
+      <c r="D25" s="17">
+        <v>99</v>
+      </c>
+      <c r="E25" s="17">
+        <v>94</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73946DF-36BA-430D-9B02-A367DD4E7DD9}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="17">
+        <v>73</v>
+      </c>
+      <c r="D3" s="17">
+        <v>91</v>
+      </c>
+      <c r="E3" s="17">
+        <v>99</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
+      <c r="C5" s="17">
+        <v>81</v>
+      </c>
+      <c r="D5" s="17">
+        <v>99</v>
+      </c>
+      <c r="E5" s="17">
+        <v>100</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="17">
+        <v>100</v>
+      </c>
+      <c r="D7" s="17">
+        <v>99</v>
+      </c>
+      <c r="E7" s="17">
+        <v>99</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="17">
+        <v>99</v>
+      </c>
+      <c r="D9" s="17">
+        <v>99</v>
+      </c>
+      <c r="E9" s="17">
+        <v>78</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="17">
+        <v>81</v>
+      </c>
+      <c r="D11" s="17">
+        <v>99</v>
+      </c>
+      <c r="E11" s="17">
+        <v>99</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="17">
+        <v>100</v>
+      </c>
+      <c r="D13" s="17">
+        <v>99</v>
+      </c>
+      <c r="E13" s="17">
+        <v>99</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="17">
+        <v>85</v>
+      </c>
+      <c r="D15" s="17">
+        <v>99</v>
+      </c>
+      <c r="E15" s="17">
+        <v>98</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="17">
+        <v>96</v>
+      </c>
+      <c r="D17" s="17">
+        <v>89</v>
+      </c>
+      <c r="E17" s="17">
+        <v>99</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="17">
+        <v>100</v>
+      </c>
+      <c r="D19" s="17">
+        <v>99</v>
+      </c>
+      <c r="E19" s="17">
+        <v>64</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>10</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="26">
+        <v>99</v>
+      </c>
+      <c r="D21" s="26">
+        <v>99</v>
+      </c>
+      <c r="E21" s="26">
+        <v>100</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="17">
+        <v>99</v>
+      </c>
+      <c r="D23" s="17">
+        <v>100</v>
+      </c>
+      <c r="E23" s="17">
+        <v>99</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>12</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="17">
+        <v>43</v>
+      </c>
+      <c r="D25" s="17">
+        <v>59</v>
+      </c>
+      <c r="E25" s="17">
+        <v>99</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7118C7DD-D063-4FB7-8E1E-913536BEA5FB}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="17">
+        <v>99</v>
+      </c>
+      <c r="D3" s="17">
+        <v>75</v>
+      </c>
+      <c r="E3" s="17">
+        <v>100</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="17">
+        <v>88</v>
+      </c>
+      <c r="D5" s="17">
+        <v>99</v>
+      </c>
+      <c r="E5" s="17">
+        <v>99</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="C7" s="17">
+        <v>99</v>
+      </c>
+      <c r="D7" s="17">
+        <v>99</v>
+      </c>
+      <c r="E7" s="17">
+        <v>99</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C9" s="17">
+        <v>55</v>
+      </c>
+      <c r="D9" s="17">
+        <v>72</v>
+      </c>
+      <c r="E9" s="17">
+        <v>99</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C11" s="17">
+        <v>99</v>
+      </c>
+      <c r="D11" s="17">
+        <v>94</v>
+      </c>
+      <c r="E11" s="17">
+        <v>28</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C13" s="17">
+        <v>89</v>
+      </c>
+      <c r="D13" s="17">
+        <v>99</v>
+      </c>
+      <c r="E13" s="17">
+        <v>99</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C15" s="17">
+        <v>99</v>
+      </c>
+      <c r="D15" s="17">
+        <v>100</v>
+      </c>
+      <c r="E15" s="17">
+        <v>99</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C17" s="17">
+        <v>39</v>
+      </c>
+      <c r="D17" s="17">
+        <v>99</v>
+      </c>
+      <c r="E17" s="17">
+        <v>58</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>9</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C19" s="17">
+        <v>100</v>
+      </c>
+      <c r="D19" s="17">
+        <v>99</v>
+      </c>
+      <c r="E19" s="17">
+        <v>100</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>10</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C21" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="17">
+        <v>24</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="C23" s="17">
+        <v>100</v>
+      </c>
+      <c r="D23" s="17">
+        <v>99</v>
+      </c>
+      <c r="E23" s="17">
+        <v>100</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="B25" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="17">
+        <v>60</v>
+      </c>
+      <c r="D25" s="17">
+        <v>100</v>
+      </c>
+      <c r="E25" s="17">
+        <v>99</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2676,76 +5337,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2756,7 +5417,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
@@ -2768,45 +5429,40 @@
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -2816,6 +5472,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2849,76 +5510,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2929,7 +5590,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
@@ -2938,7 +5599,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2949,7 +5610,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
@@ -2961,36 +5622,31 @@
       <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B14:C14"/>
@@ -3000,6 +5656,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3033,76 +5694,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3141,7 +5802,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>63</v>
@@ -3151,45 +5812,40 @@
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -3199,6 +5855,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3232,76 +5893,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3312,7 +5973,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
@@ -3324,45 +5985,40 @@
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -3372,6 +6028,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3405,76 +6066,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3510,14 +6171,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3528,7 +6189,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="8" t="s">
         <v>81</v>
       </c>
@@ -3540,36 +6201,31 @@
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B17:C17"/>
@@ -3579,6 +6235,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3612,76 +6273,76 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3708,7 +6369,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
@@ -3717,7 +6378,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -3728,7 +6389,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8" t="s">
         <v>81</v>
       </c>
@@ -3740,36 +6401,31 @@
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B16:C16"/>
@@ -3779,6 +6435,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabagita Ivan\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B63C94-201A-4DE5-AB15-52D5CFF6AB39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E47C8E8-0272-418B-9D95-F36234B54FD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="16" activeTab="25" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="20" activeTab="20" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="6" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="187">
   <si>
     <t>No</t>
   </si>
@@ -659,6 +659,9 @@
       </rPr>
       <t>(unknown)</t>
     </r>
+  </si>
+  <si>
+    <t>(kna)</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,16 +863,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,13 +902,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,31 +920,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2148,481 +2157,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="16">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="10">
         <v>52</v>
       </c>
-      <c r="D3" s="17">
-        <v>100</v>
-      </c>
-      <c r="E3" s="17">
-        <v>100</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="10">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="10">
         <v>62</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="10">
         <v>85</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="10">
         <v>96</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="17">
-        <v>100</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10">
         <v>86</v>
       </c>
-      <c r="E7" s="17">
-        <v>100</v>
-      </c>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="10">
+        <v>100</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="17">
-        <v>100</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="C9" s="10">
+        <v>100</v>
+      </c>
+      <c r="D9" s="10">
         <v>84</v>
       </c>
-      <c r="E9" s="17">
-        <v>100</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="17">
-        <v>99</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="C11" s="10">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10">
         <v>71</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="10">
         <v>88</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>6</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="10">
         <v>59</v>
       </c>
-      <c r="D13" s="17">
-        <v>100</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
         <v>97</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="13">
         <v>50</v>
       </c>
-      <c r="D15" s="26">
-        <v>100</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="D15" s="13">
+        <v>100</v>
+      </c>
+      <c r="E15" s="13">
         <v>92</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>8</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="17">
-        <v>100</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="10">
+        <v>100</v>
+      </c>
+      <c r="D17" s="10">
         <v>85</v>
       </c>
-      <c r="E17" s="17">
-        <v>100</v>
-      </c>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="10">
+        <v>100</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="10">
         <v>72</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="10">
         <v>61</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="10">
         <v>79</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="24" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>10</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="26">
-        <v>99</v>
-      </c>
-      <c r="D21" s="26">
-        <v>100</v>
-      </c>
-      <c r="E21" s="26">
-        <v>99</v>
-      </c>
-      <c r="F21" s="27" t="s">
+      <c r="C21" s="13">
+        <v>99</v>
+      </c>
+      <c r="D21" s="13">
+        <v>100</v>
+      </c>
+      <c r="E21" s="13">
+        <v>99</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="22">
         <v>11</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="17">
-        <v>100</v>
-      </c>
-      <c r="D23" s="17">
-        <v>100</v>
-      </c>
-      <c r="E23" s="17">
-        <v>100</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
+        <v>100</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>12</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="17">
-        <v>100</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="C25" s="10">
+        <v>100</v>
+      </c>
+      <c r="D25" s="10">
         <v>51</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="10">
         <v>96</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -2630,6 +2609,36 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2653,445 +2662,1528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="16">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="17">
-        <v>100</v>
-      </c>
-      <c r="D3" s="17">
-        <v>100</v>
-      </c>
-      <c r="E3" s="17">
-        <v>100</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="17">
-        <v>100</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="10">
+        <v>100</v>
+      </c>
+      <c r="D5" s="10">
         <v>36</v>
       </c>
-      <c r="E5" s="17">
-        <v>100</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="10">
+        <v>100</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="10">
         <v>97</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="10">
         <v>48</v>
       </c>
-      <c r="E7" s="17">
-        <v>99</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="10">
         <v>49</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="10">
         <v>98</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="10">
         <v>79</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="10">
         <v>55</v>
       </c>
-      <c r="D11" s="17">
-        <v>99</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="10">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10">
         <v>50</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>6</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="10">
         <v>57</v>
       </c>
-      <c r="D13" s="17">
-        <v>100</v>
-      </c>
-      <c r="E13" s="17">
-        <v>100</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>100</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="17">
-        <v>100</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="C15" s="10">
+        <v>100</v>
+      </c>
+      <c r="D15" s="10">
         <v>75</v>
       </c>
-      <c r="E15" s="17">
-        <v>100</v>
-      </c>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="10">
+        <v>100</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>8</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="10">
         <v>92</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="10">
         <v>68</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="10">
         <v>91</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="17">
-        <v>100</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="C19" s="10">
+        <v>100</v>
+      </c>
+      <c r="D19" s="10">
         <v>94</v>
       </c>
-      <c r="E19" s="17">
-        <v>100</v>
-      </c>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="10">
+        <v>100</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>10</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
-      <c r="D21" s="17">
-        <v>99</v>
-      </c>
-      <c r="E21" s="17">
-        <v>100</v>
-      </c>
-      <c r="F21" s="27" t="s">
+      <c r="C21" s="10">
+        <v>100</v>
+      </c>
+      <c r="D21" s="10">
+        <v>99</v>
+      </c>
+      <c r="E21" s="10">
+        <v>100</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="22">
         <v>11</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="17">
-        <v>100</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
         <v>89</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="10">
         <v>72</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>12</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="17">
-        <v>100</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="C25" s="10">
+        <v>100</v>
+      </c>
+      <c r="D25" s="10">
         <v>94</v>
       </c>
-      <c r="E25" s="17">
-        <v>100</v>
+      <c r="E25" s="10">
+        <v>100</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC17CEB5-8FBB-4E9F-8F9C-BD5A05E7803D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAAF9FA-F3D9-4C22-BE64-9E20341CE5D8}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>94</v>
+      </c>
+      <c r="D5" s="10">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10">
+        <v>94</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>80</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>100</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>96</v>
+      </c>
+      <c r="D9" s="10">
+        <v>90</v>
+      </c>
+      <c r="E9" s="10">
+        <v>57</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>100</v>
+      </c>
+      <c r="D11" s="10">
+        <v>86</v>
+      </c>
+      <c r="E11" s="10">
+        <v>95</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>80</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>100</v>
+      </c>
+      <c r="D15" s="10">
+        <v>96</v>
+      </c>
+      <c r="E15" s="10">
+        <v>91</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>85</v>
+      </c>
+      <c r="D17" s="10">
+        <v>96</v>
+      </c>
+      <c r="E17" s="10">
+        <v>100</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>9</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>92</v>
+      </c>
+      <c r="D19" s="10">
+        <v>100</v>
+      </c>
+      <c r="E19" s="10">
+        <v>100</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="13">
+        <v>98</v>
+      </c>
+      <c r="D21" s="13">
+        <v>98</v>
+      </c>
+      <c r="E21" s="13">
+        <v>98</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
+        <v>98</v>
+      </c>
+      <c r="E23" s="10">
+        <v>65</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="10">
+        <v>54</v>
+      </c>
+      <c r="D25" s="10">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10">
+        <v>67</v>
       </c>
       <c r="F25" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D21D3-314A-4749-8C34-D06786D3AE8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04D4AB-F3EF-43C2-BE11-8B76C72C9550}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE69C378-7CEF-4D0C-943B-C5293127ACA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB9F02B-1A08-466C-8127-2C1E153A2A6A}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>71</v>
+      </c>
+      <c r="D5" s="10">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10">
+        <v>99</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>169</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>70</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>57</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>99</v>
+      </c>
+      <c r="D9" s="10">
+        <v>100</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10">
+        <v>96</v>
+      </c>
+      <c r="E11" s="10">
+        <v>74</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>96</v>
+      </c>
+      <c r="E13" s="10">
+        <v>89</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>100</v>
+      </c>
+      <c r="D15" s="10">
+        <v>90</v>
+      </c>
+      <c r="E15" s="10">
+        <v>86</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>98</v>
+      </c>
+      <c r="D17" s="10">
+        <v>64</v>
+      </c>
+      <c r="E17" s="10">
+        <v>99</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>9</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>99</v>
+      </c>
+      <c r="D19" s="10">
+        <v>100</v>
+      </c>
+      <c r="E19" s="10">
+        <v>98</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="10">
+        <v>99</v>
+      </c>
+      <c r="D21" s="10">
+        <v>99</v>
+      </c>
+      <c r="E21" s="10">
+        <v>100</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>92</v>
+      </c>
+      <c r="D23" s="10">
+        <v>84</v>
+      </c>
+      <c r="E23" s="10">
+        <v>61</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13">
+        <v>64</v>
+      </c>
+      <c r="D25" s="10">
+        <v>53</v>
+      </c>
+      <c r="E25" s="10">
+        <v>99</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="C26" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F26" s="25"/>
@@ -3140,1586 +4232,473 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC17CEB5-8FBB-4E9F-8F9C-BD5A05E7803D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAAF9FA-F3D9-4C22-BE64-9E20341CE5D8}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A17526-1A85-46EF-B7A0-CEFEEDB9C956}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16">
-        <v>3</v>
-      </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="17">
-        <v>100</v>
-      </c>
-      <c r="D3" s="17">
-        <v>100</v>
-      </c>
-      <c r="E3" s="17">
-        <v>100</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="17">
-        <v>94</v>
-      </c>
-      <c r="D5" s="17">
-        <v>48</v>
-      </c>
-      <c r="E5" s="17">
-        <v>94</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>3</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="17">
-        <v>80</v>
-      </c>
-      <c r="D7" s="17">
-        <v>99</v>
-      </c>
-      <c r="E7" s="17">
-        <v>100</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>4</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="17">
-        <v>96</v>
-      </c>
-      <c r="D9" s="17">
-        <v>90</v>
-      </c>
-      <c r="E9" s="17">
-        <v>57</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>5</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="17">
-        <v>100</v>
-      </c>
-      <c r="D11" s="17">
-        <v>86</v>
-      </c>
-      <c r="E11" s="17">
-        <v>95</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>6</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="17">
-        <v>99</v>
-      </c>
-      <c r="D13" s="17">
-        <v>100</v>
-      </c>
-      <c r="E13" s="17">
-        <v>80</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="17">
-        <v>100</v>
-      </c>
-      <c r="D15" s="17">
-        <v>96</v>
-      </c>
-      <c r="E15" s="17">
-        <v>91</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>8</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="17">
-        <v>85</v>
-      </c>
-      <c r="D17" s="17">
-        <v>96</v>
-      </c>
-      <c r="E17" s="17">
-        <v>100</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>9</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="17">
-        <v>92</v>
-      </c>
-      <c r="D19" s="17">
-        <v>100</v>
-      </c>
-      <c r="E19" s="17">
-        <v>100</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>10</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="26">
-        <v>98</v>
-      </c>
-      <c r="D21" s="26">
-        <v>98</v>
-      </c>
-      <c r="E21" s="26">
-        <v>98</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>11</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="17">
-        <v>100</v>
-      </c>
-      <c r="D23" s="17">
-        <v>98</v>
-      </c>
-      <c r="E23" s="17">
-        <v>65</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>12</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="17">
-        <v>54</v>
-      </c>
-      <c r="D25" s="17">
-        <v>100</v>
-      </c>
-      <c r="E25" s="17">
-        <v>67</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D21D3-314A-4749-8C34-D06786D3AE8C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04D4AB-F3EF-43C2-BE11-8B76C72C9550}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE69C378-7CEF-4D0C-943B-C5293127ACA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB9F02B-1A08-466C-8127-2C1E153A2A6A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A17526-1A85-46EF-B7A0-CEFEEDB9C956}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FED96E-7886-433A-9289-8A2020F935CB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H13:H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04000B9-11A2-439A-84D6-38C2103A3796}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="A1:F26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="16">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="17">
-        <v>100</v>
-      </c>
-      <c r="D3" s="17">
-        <v>99</v>
-      </c>
-      <c r="E3" s="17">
-        <v>94</v>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10">
+        <v>99</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10">
+        <v>90</v>
+      </c>
+      <c r="E5" s="10">
+        <v>92</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="18" t="s">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>92</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>99</v>
+      </c>
+      <c r="D9" s="10">
+        <v>100</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10">
+        <v>65</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>95</v>
+      </c>
+      <c r="D15" s="10">
+        <v>76</v>
+      </c>
+      <c r="E15" s="10">
+        <v>78</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>99</v>
+      </c>
+      <c r="D17" s="10">
+        <v>96</v>
+      </c>
+      <c r="E17" s="10">
+        <v>100</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>9</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>99</v>
+      </c>
+      <c r="D19" s="10">
+        <v>96</v>
+      </c>
+      <c r="E19" s="10">
+        <v>99</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="10">
+        <v>99</v>
+      </c>
+      <c r="D21" s="10">
+        <v>73</v>
+      </c>
+      <c r="E21" s="10">
+        <v>60</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="17">
-        <v>97</v>
-      </c>
-      <c r="D5" s="17">
-        <v>99</v>
-      </c>
-      <c r="E5" s="17">
-        <v>99</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
+        <v>99</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="18" t="s">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13">
+        <v>99</v>
+      </c>
+      <c r="D25" s="10">
+        <v>99</v>
+      </c>
+      <c r="E25" s="10">
+        <v>99</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>3</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="17">
-        <v>100</v>
-      </c>
-      <c r="D7" s="17">
-        <v>99</v>
-      </c>
-      <c r="E7" s="17">
-        <v>99</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>4</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="17">
-        <v>93</v>
-      </c>
-      <c r="D9" s="17">
-        <v>99</v>
-      </c>
-      <c r="E9" s="17">
-        <v>100</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>5</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="17">
-        <v>55</v>
-      </c>
-      <c r="D11" s="17">
-        <v>99</v>
-      </c>
-      <c r="E11" s="17">
-        <v>43</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>6</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="17">
-        <v>99</v>
-      </c>
-      <c r="D13" s="17">
-        <v>54</v>
-      </c>
-      <c r="E13" s="17">
-        <v>99</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="E26" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="17">
-        <v>97</v>
-      </c>
-      <c r="D15" s="17">
-        <v>74</v>
-      </c>
-      <c r="E15" s="17">
-        <v>100</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>8</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="17">
-        <v>68</v>
-      </c>
-      <c r="D17" s="17">
-        <v>92</v>
-      </c>
-      <c r="E17" s="17">
-        <v>52</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="18">
-        <v>-52</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>9</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="17">
-        <v>48</v>
-      </c>
-      <c r="D19" s="17">
-        <v>22</v>
-      </c>
-      <c r="E19" s="17">
-        <v>99</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>10</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="17">
-        <v>100</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>11</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="17">
-        <v>100</v>
-      </c>
-      <c r="D23" s="17">
-        <v>100</v>
-      </c>
-      <c r="E23" s="17">
-        <v>100</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>12</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="17">
-        <v>55</v>
-      </c>
-      <c r="D25" s="17">
-        <v>99</v>
-      </c>
-      <c r="E25" s="17">
-        <v>94</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73946DF-36BA-430D-9B02-A367DD4E7DD9}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16">
-        <v>3</v>
-      </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="17">
-        <v>73</v>
-      </c>
-      <c r="D3" s="17">
-        <v>91</v>
-      </c>
-      <c r="E3" s="17">
-        <v>99</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="17">
-        <v>81</v>
-      </c>
-      <c r="D5" s="17">
-        <v>99</v>
-      </c>
-      <c r="E5" s="17">
-        <v>100</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>3</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="17">
-        <v>100</v>
-      </c>
-      <c r="D7" s="17">
-        <v>99</v>
-      </c>
-      <c r="E7" s="17">
-        <v>99</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>4</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="17">
-        <v>99</v>
-      </c>
-      <c r="D9" s="17">
-        <v>99</v>
-      </c>
-      <c r="E9" s="17">
-        <v>78</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>5</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="17">
-        <v>81</v>
-      </c>
-      <c r="D11" s="17">
-        <v>99</v>
-      </c>
-      <c r="E11" s="17">
-        <v>99</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>6</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="17">
-        <v>100</v>
-      </c>
-      <c r="D13" s="17">
-        <v>99</v>
-      </c>
-      <c r="E13" s="17">
-        <v>99</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="17">
-        <v>85</v>
-      </c>
-      <c r="D15" s="17">
-        <v>99</v>
-      </c>
-      <c r="E15" s="17">
-        <v>98</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>8</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="17">
-        <v>96</v>
-      </c>
-      <c r="D17" s="17">
-        <v>89</v>
-      </c>
-      <c r="E17" s="17">
-        <v>99</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>9</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="17">
-        <v>100</v>
-      </c>
-      <c r="D19" s="17">
-        <v>99</v>
-      </c>
-      <c r="E19" s="17">
-        <v>64</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>10</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="26">
-        <v>99</v>
-      </c>
-      <c r="D21" s="26">
-        <v>99</v>
-      </c>
-      <c r="E21" s="26">
-        <v>100</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>11</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="17">
-        <v>99</v>
-      </c>
-      <c r="D23" s="17">
-        <v>100</v>
-      </c>
-      <c r="E23" s="17">
-        <v>99</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>12</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="17">
-        <v>43</v>
-      </c>
-      <c r="D25" s="17">
-        <v>59</v>
-      </c>
-      <c r="E25" s="17">
-        <v>99</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="37">
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
@@ -4757,471 +4736,474 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7118C7DD-D063-4FB7-8E1E-913536BEA5FB}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FED96E-7886-433A-9289-8A2020F935CB}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="16">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="17">
-        <v>99</v>
-      </c>
-      <c r="D3" s="17">
-        <v>75</v>
-      </c>
-      <c r="E3" s="17">
-        <v>100</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>92</v>
+      </c>
+      <c r="D5" s="10">
+        <v>95</v>
+      </c>
+      <c r="E5" s="10">
+        <v>41</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>99</v>
+      </c>
+      <c r="D7" s="10">
+        <v>74</v>
+      </c>
+      <c r="E7" s="10">
+        <v>80</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10">
+        <v>84</v>
+      </c>
+      <c r="E9" s="10">
+        <v>48</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10">
+        <v>99</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>100</v>
+      </c>
+      <c r="D13" s="10">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>99</v>
+      </c>
+      <c r="D15" s="10">
+        <v>96</v>
+      </c>
+      <c r="E15" s="10">
+        <v>94</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="18" t="s">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>73</v>
+      </c>
+      <c r="D17" s="10">
+        <v>100</v>
+      </c>
+      <c r="E17" s="10">
+        <v>99</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>9</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10">
+        <v>96</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="10">
+        <v>98</v>
+      </c>
+      <c r="D21" s="10">
+        <v>98</v>
+      </c>
+      <c r="E21" s="10">
+        <v>98</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="17">
-        <v>88</v>
-      </c>
-      <c r="D5" s="17">
-        <v>99</v>
-      </c>
-      <c r="E5" s="17">
-        <v>99</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="18" t="s">
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>99</v>
+      </c>
+      <c r="D23" s="10">
+        <v>68</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13">
+        <v>99</v>
+      </c>
+      <c r="D25" s="13">
+        <v>93</v>
+      </c>
+      <c r="E25" s="13">
+        <v>100</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="E26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>3</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="17">
-        <v>99</v>
-      </c>
-      <c r="D7" s="17">
-        <v>99</v>
-      </c>
-      <c r="E7" s="17">
-        <v>99</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>4</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="17">
-        <v>55</v>
-      </c>
-      <c r="D9" s="17">
-        <v>72</v>
-      </c>
-      <c r="E9" s="17">
-        <v>99</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>5</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="17">
-        <v>99</v>
-      </c>
-      <c r="D11" s="17">
-        <v>94</v>
-      </c>
-      <c r="E11" s="17">
-        <v>28</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>6</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="17">
-        <v>89</v>
-      </c>
-      <c r="D13" s="17">
-        <v>99</v>
-      </c>
-      <c r="E13" s="17">
-        <v>99</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="17">
-        <v>99</v>
-      </c>
-      <c r="D15" s="17">
-        <v>100</v>
-      </c>
-      <c r="E15" s="17">
-        <v>99</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>8</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="17">
-        <v>39</v>
-      </c>
-      <c r="D17" s="17">
-        <v>99</v>
-      </c>
-      <c r="E17" s="17">
-        <v>58</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>9</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="17">
-        <v>100</v>
-      </c>
-      <c r="D19" s="17">
-        <v>99</v>
-      </c>
-      <c r="E19" s="17">
-        <v>100</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>10</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="17">
-        <v>24</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>11</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="17">
-        <v>100</v>
-      </c>
-      <c r="D23" s="17">
-        <v>99</v>
-      </c>
-      <c r="E23" s="17">
-        <v>100</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>12</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="17">
-        <v>60</v>
-      </c>
-      <c r="D25" s="17">
-        <v>100</v>
-      </c>
-      <c r="E25" s="17">
-        <v>99</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="F25:F26"/>
+  <mergeCells count="37">
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="F17:F18"/>
@@ -5255,6 +5237,1511 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04000B9-11A2-439A-84D6-38C2103A3796}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="A1:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10">
+        <v>94</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>97</v>
+      </c>
+      <c r="D5" s="10">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10">
+        <v>99</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>93</v>
+      </c>
+      <c r="D9" s="10">
+        <v>99</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>55</v>
+      </c>
+      <c r="D11" s="10">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>97</v>
+      </c>
+      <c r="D15" s="10">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10">
+        <v>100</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>68</v>
+      </c>
+      <c r="D17" s="10">
+        <v>92</v>
+      </c>
+      <c r="E17" s="10">
+        <v>52</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-52</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>9</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>48</v>
+      </c>
+      <c r="D19" s="10">
+        <v>22</v>
+      </c>
+      <c r="E19" s="10">
+        <v>99</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="10">
+        <v>100</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
+        <v>100</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="10">
+        <v>55</v>
+      </c>
+      <c r="D25" s="10">
+        <v>99</v>
+      </c>
+      <c r="E25" s="10">
+        <v>94</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73946DF-36BA-430D-9B02-A367DD4E7DD9}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>73</v>
+      </c>
+      <c r="D3" s="10">
+        <v>91</v>
+      </c>
+      <c r="E3" s="10">
+        <v>99</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10">
+        <v>100</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>99</v>
+      </c>
+      <c r="D9" s="10">
+        <v>99</v>
+      </c>
+      <c r="E9" s="10">
+        <v>78</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>81</v>
+      </c>
+      <c r="D11" s="10">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10">
+        <v>99</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>100</v>
+      </c>
+      <c r="D13" s="10">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>85</v>
+      </c>
+      <c r="D15" s="10">
+        <v>99</v>
+      </c>
+      <c r="E15" s="10">
+        <v>98</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10">
+        <v>99</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>9</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10">
+        <v>64</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="13">
+        <v>99</v>
+      </c>
+      <c r="D21" s="13">
+        <v>99</v>
+      </c>
+      <c r="E21" s="13">
+        <v>100</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>99</v>
+      </c>
+      <c r="D23" s="10">
+        <v>100</v>
+      </c>
+      <c r="E23" s="10">
+        <v>99</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43</v>
+      </c>
+      <c r="D25" s="10">
+        <v>59</v>
+      </c>
+      <c r="E25" s="10">
+        <v>99</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F25:F26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7118C7DD-D063-4FB7-8E1E-913536BEA5FB}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>99</v>
+      </c>
+      <c r="D3" s="10">
+        <v>75</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>88</v>
+      </c>
+      <c r="D5" s="10">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10">
+        <v>99</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>99</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10">
+        <v>72</v>
+      </c>
+      <c r="E9" s="10">
+        <v>99</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10">
+        <v>94</v>
+      </c>
+      <c r="E11" s="10">
+        <v>28</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>89</v>
+      </c>
+      <c r="D13" s="10">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>99</v>
+      </c>
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="10">
+        <v>99</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>39</v>
+      </c>
+      <c r="D17" s="10">
+        <v>99</v>
+      </c>
+      <c r="E17" s="10">
+        <v>58</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>9</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10">
+        <v>100</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="10">
+        <v>24</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
+        <v>99</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="10">
+        <v>60</v>
+      </c>
+      <c r="D25" s="10">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10">
+        <v>99</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5328,85 +6815,85 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5417,7 +6904,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
@@ -5429,40 +6916,45 @@
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -5472,11 +6964,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5501,85 +6988,85 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5590,7 +7077,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
@@ -5599,7 +7086,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5610,7 +7097,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
@@ -5622,31 +7109,36 @@
       <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B14:C14"/>
@@ -5656,11 +7148,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5685,85 +7172,85 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5774,35 +7261,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>63</v>
@@ -5812,40 +7299,45 @@
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -5855,11 +7347,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5884,85 +7371,85 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5973,7 +7460,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
@@ -5985,40 +7472,45 @@
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -6028,11 +7520,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6057,85 +7544,85 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6146,7 +7633,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>77</v>
       </c>
@@ -6155,14 +7642,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
         <v>78</v>
       </c>
@@ -6171,14 +7658,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -6189,7 +7676,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="8" t="s">
         <v>81</v>
       </c>
@@ -6201,31 +7688,36 @@
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B17:C17"/>
@@ -6235,11 +7727,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6264,85 +7751,85 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6353,14 +7840,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
         <v>88</v>
       </c>
@@ -6369,7 +7856,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
@@ -6378,7 +7865,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6389,7 +7876,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="8" t="s">
         <v>81</v>
       </c>
@@ -6401,31 +7888,36 @@
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B16:C16"/>
@@ -6435,11 +7927,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabagita Ivan\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E47C8E8-0272-418B-9D95-F36234B54FD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94985B0-88CF-4A23-9D00-E634B67C94D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="20" activeTab="20" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="20" activeTab="22" xr2:uid="{8639E025-6890-4D88-A143-6E789D4DC52A}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="6" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="187">
   <si>
     <t>No</t>
   </si>
@@ -837,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -882,15 +882,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,18 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,7 +923,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2157,24 +2160,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -2184,13 +2187,13 @@
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="10">
@@ -2202,13 +2205,13 @@
       <c r="E3" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
         <v>164</v>
       </c>
@@ -2218,13 +2221,13 @@
       <c r="E4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="10">
@@ -2236,13 +2239,13 @@
       <c r="E5" s="10">
         <v>96</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="11" t="s">
         <v>166</v>
       </c>
@@ -2252,13 +2255,13 @@
       <c r="E6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="29" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="10">
@@ -2270,13 +2273,13 @@
       <c r="E7" s="10">
         <v>100</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
         <v>165</v>
       </c>
@@ -2286,13 +2289,13 @@
       <c r="E8" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="10">
@@ -2304,13 +2307,13 @@
       <c r="E9" s="10">
         <v>100</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="11" t="s">
         <v>164</v>
       </c>
@@ -2320,13 +2323,13 @@
       <c r="E10" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="29" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="10">
@@ -2338,13 +2341,13 @@
       <c r="E11" s="10">
         <v>88</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
         <v>170</v>
       </c>
@@ -2354,13 +2357,13 @@
       <c r="E12" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="10">
@@ -2372,13 +2375,13 @@
       <c r="E13" s="10">
         <v>97</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
         <v>172</v>
       </c>
@@ -2388,13 +2391,13 @@
       <c r="E14" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="13">
@@ -2406,13 +2409,13 @@
       <c r="E15" s="13">
         <v>92</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="11" t="s">
         <v>166</v>
       </c>
@@ -2422,13 +2425,13 @@
       <c r="E16" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>157</v>
       </c>
       <c r="C17" s="10">
@@ -2440,13 +2443,13 @@
       <c r="E17" s="10">
         <v>100</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="11" t="s">
         <v>171</v>
       </c>
@@ -2456,13 +2459,13 @@
       <c r="E18" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="10">
@@ -2474,13 +2477,13 @@
       <c r="E19" s="10">
         <v>79</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="31" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="11" t="s">
         <v>165</v>
       </c>
@@ -2490,10 +2493,10 @@
       <c r="E20" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="29">
         <v>10</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2508,12 +2511,12 @@
       <c r="E21" s="13">
         <v>99</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
@@ -2526,10 +2529,10 @@
       <c r="E22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2544,12 +2547,12 @@
       <c r="E23" s="10">
         <v>100</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
@@ -2562,10 +2565,10 @@
       <c r="E24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -2580,12 +2583,12 @@
       <c r="E25" s="10">
         <v>96</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="11" t="s">
         <v>179</v>
       </c>
@@ -2598,10 +2601,40 @@
       <c r="E26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -2609,36 +2642,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2662,24 +2665,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -2689,13 +2692,13 @@
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="10">
@@ -2707,13 +2710,13 @@
       <c r="E3" s="10">
         <v>100</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="31" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
         <v>164</v>
       </c>
@@ -2723,13 +2726,13 @@
       <c r="E4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="10">
@@ -2741,13 +2744,13 @@
       <c r="E5" s="10">
         <v>100</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="11" t="s">
         <v>180</v>
       </c>
@@ -2757,13 +2760,13 @@
       <c r="E6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="29" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="10">
@@ -2775,13 +2778,13 @@
       <c r="E7" s="10">
         <v>99</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
         <v>172</v>
       </c>
@@ -2791,13 +2794,13 @@
       <c r="E8" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="10">
@@ -2809,13 +2812,13 @@
       <c r="E9" s="10">
         <v>79</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="11" t="s">
         <v>180</v>
       </c>
@@ -2825,13 +2828,13 @@
       <c r="E10" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="29" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="10">
@@ -2843,13 +2846,13 @@
       <c r="E11" s="10">
         <v>50</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
         <v>167</v>
       </c>
@@ -2859,13 +2862,13 @@
       <c r="E12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="10">
@@ -2877,13 +2880,13 @@
       <c r="E13" s="10">
         <v>100</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
         <v>180</v>
       </c>
@@ -2893,13 +2896,13 @@
       <c r="E14" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="10">
@@ -2911,13 +2914,13 @@
       <c r="E15" s="10">
         <v>100</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="31" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="11" t="s">
         <v>167</v>
       </c>
@@ -2927,13 +2930,13 @@
       <c r="E16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>157</v>
       </c>
       <c r="C17" s="10">
@@ -2945,13 +2948,13 @@
       <c r="E17" s="10">
         <v>91</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="11" t="s">
         <v>171</v>
       </c>
@@ -2961,13 +2964,13 @@
       <c r="E18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="10">
@@ -2979,13 +2982,13 @@
       <c r="E19" s="10">
         <v>100</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="11" t="s">
         <v>170</v>
       </c>
@@ -2995,10 +2998,10 @@
       <c r="E20" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="29">
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -3013,12 +3016,12 @@
       <c r="E21" s="10">
         <v>100</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
@@ -3031,10 +3034,10 @@
       <c r="E22" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3049,12 +3052,12 @@
       <c r="E23" s="10">
         <v>72</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
@@ -3067,10 +3070,10 @@
       <c r="E24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -3085,12 +3088,12 @@
       <c r="E25" s="10">
         <v>100</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="11" t="s">
         <v>179</v>
       </c>
@@ -3103,1090 +3106,7 @@
       <c r="E26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC17CEB5-8FBB-4E9F-8F9C-BD5A05E7803D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAAF9FA-F3D9-4C22-BE64-9E20341CE5D8}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9">
-        <v>3</v>
-      </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="10">
-        <v>100</v>
-      </c>
-      <c r="D3" s="10">
-        <v>100</v>
-      </c>
-      <c r="E3" s="10">
-        <v>100</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="10">
-        <v>94</v>
-      </c>
-      <c r="D5" s="10">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10">
-        <v>94</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="10">
-        <v>80</v>
-      </c>
-      <c r="D7" s="10">
-        <v>99</v>
-      </c>
-      <c r="E7" s="10">
-        <v>100</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="10">
-        <v>96</v>
-      </c>
-      <c r="D9" s="10">
-        <v>90</v>
-      </c>
-      <c r="E9" s="10">
-        <v>57</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>5</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="10">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10">
-        <v>86</v>
-      </c>
-      <c r="E11" s="10">
-        <v>95</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="10">
-        <v>99</v>
-      </c>
-      <c r="D13" s="10">
-        <v>100</v>
-      </c>
-      <c r="E13" s="10">
-        <v>80</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="10">
-        <v>100</v>
-      </c>
-      <c r="D15" s="10">
-        <v>96</v>
-      </c>
-      <c r="E15" s="10">
-        <v>91</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>8</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="10">
-        <v>85</v>
-      </c>
-      <c r="D17" s="10">
-        <v>96</v>
-      </c>
-      <c r="E17" s="10">
-        <v>100</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>9</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="10">
-        <v>92</v>
-      </c>
-      <c r="D19" s="10">
-        <v>100</v>
-      </c>
-      <c r="E19" s="10">
-        <v>100</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="13">
-        <v>98</v>
-      </c>
-      <c r="D21" s="13">
-        <v>98</v>
-      </c>
-      <c r="E21" s="13">
-        <v>98</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
-        <v>11</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="10">
-        <v>100</v>
-      </c>
-      <c r="D23" s="10">
-        <v>98</v>
-      </c>
-      <c r="E23" s="10">
-        <v>65</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>12</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="10">
-        <v>54</v>
-      </c>
-      <c r="D25" s="10">
-        <v>100</v>
-      </c>
-      <c r="E25" s="10">
-        <v>67</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F23:F24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D21D3-314A-4749-8C34-D06786D3AE8C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04D4AB-F3EF-43C2-BE11-8B76C72C9550}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE69C378-7CEF-4D0C-943B-C5293127ACA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB9F02B-1A08-466C-8127-2C1E153A2A6A}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9">
-        <v>3</v>
-      </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="10">
-        <v>100</v>
-      </c>
-      <c r="D3" s="10">
-        <v>99</v>
-      </c>
-      <c r="E3" s="10">
-        <v>100</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="10">
-        <v>71</v>
-      </c>
-      <c r="D5" s="10">
-        <v>99</v>
-      </c>
-      <c r="E5" s="10">
-        <v>99</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="10">
-        <v>70</v>
-      </c>
-      <c r="D7" s="10">
-        <v>99</v>
-      </c>
-      <c r="E7" s="10">
-        <v>57</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="10">
-        <v>99</v>
-      </c>
-      <c r="D9" s="10">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10">
-        <v>100</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>5</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="10">
-        <v>74</v>
-      </c>
-      <c r="D11" s="10">
-        <v>96</v>
-      </c>
-      <c r="E11" s="10">
-        <v>74</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="10">
-        <v>99</v>
-      </c>
-      <c r="D13" s="10">
-        <v>96</v>
-      </c>
-      <c r="E13" s="10">
-        <v>89</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="10">
-        <v>100</v>
-      </c>
-      <c r="D15" s="10">
-        <v>90</v>
-      </c>
-      <c r="E15" s="10">
-        <v>86</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>8</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="10">
-        <v>98</v>
-      </c>
-      <c r="D17" s="10">
-        <v>64</v>
-      </c>
-      <c r="E17" s="10">
-        <v>99</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>9</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="10">
-        <v>99</v>
-      </c>
-      <c r="D19" s="10">
-        <v>100</v>
-      </c>
-      <c r="E19" s="10">
-        <v>98</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="10">
-        <v>99</v>
-      </c>
-      <c r="D21" s="10">
-        <v>99</v>
-      </c>
-      <c r="E21" s="10">
-        <v>100</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
-        <v>11</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="10">
-        <v>92</v>
-      </c>
-      <c r="D23" s="10">
-        <v>84</v>
-      </c>
-      <c r="E23" s="10">
-        <v>61</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>12</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="13">
-        <v>64</v>
-      </c>
-      <c r="D25" s="10">
-        <v>53</v>
-      </c>
-      <c r="E25" s="10">
-        <v>99</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -4232,41 +3152,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A17526-1A85-46EF-B7A0-CEFEEDB9C956}">
-  <dimension ref="A1:F26"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC17CEB5-8FBB-4E9F-8F9C-BD5A05E7803D}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAAF9FA-F3D9-4C22-BE64-9E20341CE5D8}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -4276,255 +3232,255 @@
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="10">
         <v>100</v>
       </c>
       <c r="D3" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="10">
-        <v>99</v>
-      </c>
-      <c r="F3" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="10">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D5" s="10">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10">
+        <v>94</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>80</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>100</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>96</v>
+      </c>
+      <c r="D9" s="10">
         <v>90</v>
       </c>
-      <c r="E5" s="10">
-        <v>92</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E9" s="10">
+        <v>57</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="11" t="s">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="D10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="10">
-        <v>100</v>
-      </c>
-      <c r="D7" s="10">
-        <v>99</v>
-      </c>
-      <c r="E7" s="10">
-        <v>92</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>100</v>
+      </c>
+      <c r="D11" s="10">
+        <v>86</v>
+      </c>
+      <c r="E11" s="10">
+        <v>95</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="10">
-        <v>99</v>
-      </c>
-      <c r="D9" s="10">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10">
-        <v>100</v>
-      </c>
-      <c r="F9" s="22" t="s">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>80</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>5</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="10">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10">
-        <v>99</v>
-      </c>
-      <c r="E11" s="10">
-        <v>65</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="10">
-        <v>99</v>
-      </c>
-      <c r="D13" s="10">
-        <v>100</v>
-      </c>
-      <c r="E13" s="10">
-        <v>99</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D15" s="10">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E15" s="10">
-        <v>78</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>169</v>
+        <v>91</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>157</v>
       </c>
       <c r="C17" s="10">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D17" s="10">
         <v>96</v>
@@ -4532,96 +3488,96 @@
       <c r="E17" s="10">
         <v>100</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>169</v>
+      <c r="F17" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="10">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D19" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E19" s="10">
-        <v>99</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>169</v>
+        <v>100</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="29">
         <v>10</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="10">
-        <v>99</v>
-      </c>
-      <c r="D21" s="10">
-        <v>73</v>
-      </c>
-      <c r="E21" s="10">
-        <v>60</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="C21" s="13">
+        <v>98</v>
+      </c>
+      <c r="D21" s="13">
+        <v>98</v>
+      </c>
+      <c r="E21" s="13">
+        <v>98</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -4631,75 +3587,75 @@
         <v>100</v>
       </c>
       <c r="D23" s="10">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="10">
-        <v>100</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>169</v>
+        <v>65</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="13">
-        <v>99</v>
+      <c r="C25" s="10">
+        <v>54</v>
       </c>
       <c r="D25" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" s="10">
-        <v>99</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>169</v>
+        <v>67</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>167</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="23"/>
+        <v>172</v>
+      </c>
+      <c r="F26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="F17:F18"/>
@@ -4736,41 +3692,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FED96E-7886-433A-9289-8A2020F935CB}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D21D3-314A-4749-8C34-D06786D3AE8C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -4780,33 +3736,33 @@
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="10">
-        <v>100</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>164</v>
@@ -4814,269 +3770,269 @@
       <c r="E4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="10">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D5" s="10">
+        <v>98</v>
+      </c>
+      <c r="E5" s="10">
+        <v>99</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>52</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>61</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10">
         <v>95</v>
       </c>
-      <c r="E5" s="10">
-        <v>41</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="F9" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="11" t="s">
+    <row r="10" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10">
+        <v>99</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>86</v>
+      </c>
+      <c r="D15" s="10">
+        <v>20</v>
+      </c>
+      <c r="E15" s="10">
+        <v>57</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>99</v>
+      </c>
+      <c r="D17" s="10">
+        <v>68</v>
+      </c>
+      <c r="E17" s="10">
+        <v>90</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="10">
-        <v>99</v>
-      </c>
-      <c r="D7" s="10">
-        <v>74</v>
-      </c>
-      <c r="E7" s="10">
-        <v>80</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="10">
-        <v>59</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="D18" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>9</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
         <v>84</v>
       </c>
-      <c r="E9" s="10">
-        <v>48</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>5</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="10">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10">
-        <v>99</v>
-      </c>
-      <c r="E11" s="10">
-        <v>99</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="10">
-        <v>100</v>
-      </c>
-      <c r="D13" s="10">
-        <v>99</v>
-      </c>
-      <c r="E13" s="10">
-        <v>99</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="10">
-        <v>99</v>
-      </c>
-      <c r="D15" s="10">
-        <v>96</v>
-      </c>
-      <c r="E15" s="10">
-        <v>94</v>
-      </c>
-      <c r="F15" s="24" t="s">
+      <c r="D19" s="10">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10">
+        <v>78</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>8</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="10">
-        <v>73</v>
-      </c>
-      <c r="D17" s="10">
-        <v>100</v>
-      </c>
-      <c r="E17" s="10">
-        <v>99</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>9</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="10">
-        <v>100</v>
-      </c>
-      <c r="D19" s="10">
-        <v>99</v>
-      </c>
-      <c r="E19" s="10">
-        <v>96</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="11" t="s">
         <v>170</v>
       </c>
@@ -5084,32 +4040,32 @@
         <v>170</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="29">
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>159</v>
       </c>
       <c r="C21" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D21" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E21" s="10">
-        <v>98</v>
-      </c>
-      <c r="F21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+    <row r="22" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
@@ -5122,10 +4078,10 @@
       <c r="E22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -5135,66 +4091,66 @@
         <v>99</v>
       </c>
       <c r="D23" s="10">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E23" s="10">
-        <v>100</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>175</v>
+        <v>99</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="13">
-        <v>99</v>
-      </c>
-      <c r="D25" s="13">
-        <v>93</v>
-      </c>
-      <c r="E25" s="13">
-        <v>100</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>169</v>
+      <c r="C25" s="10">
+        <v>36</v>
+      </c>
+      <c r="D25" s="10">
+        <v>96</v>
+      </c>
+      <c r="E25" s="10">
+        <v>99</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="23"/>
+        <v>181</v>
+      </c>
+      <c r="F26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -5241,41 +4197,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04000B9-11A2-439A-84D6-38C2103A3796}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04D4AB-F3EF-43C2-BE11-8B76C72C9550}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="A1:F26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -5285,135 +4240,135 @@
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="10">
         <v>100</v>
       </c>
       <c r="D3" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="10">
-        <v>94</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>169</v>
+        <v>99</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="23"/>
+        <v>164</v>
+      </c>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="10">
+        <v>92</v>
+      </c>
+      <c r="D5" s="10">
         <v>97</v>
       </c>
-      <c r="D5" s="10">
-        <v>99</v>
-      </c>
       <c r="E5" s="10">
-        <v>99</v>
-      </c>
-      <c r="F5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="29" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="10">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D7" s="10">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10">
-        <v>99</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>175</v>
+        <v>75</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="25"/>
+        <v>170</v>
+      </c>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="10">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E9" s="10">
-        <v>100</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>175</v>
+        <v>90</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>168</v>
@@ -5421,232 +4376,236 @@
       <c r="E10" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="29" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="10">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D11" s="10">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E11" s="10">
-        <v>43</v>
-      </c>
-      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="23"/>
+        <v>181</v>
+      </c>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="10">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D13" s="10">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E13" s="10">
-        <v>99</v>
-      </c>
-      <c r="F13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D15" s="10">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E15" s="10">
-        <v>100</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>177</v>
+        <v>99</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>157</v>
       </c>
       <c r="C17" s="10">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D17" s="10">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E17" s="10">
-        <v>52</v>
-      </c>
-      <c r="F17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="11">
-        <v>-52</v>
-      </c>
-      <c r="F18" s="25"/>
+      <c r="E18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="10">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="D19" s="10">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E19" s="10">
-        <v>99</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>169</v>
+        <v>85</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="29">
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>185</v>
+      <c r="C21" s="10">
+        <v>100</v>
       </c>
       <c r="D21" s="10">
-        <v>100</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>176</v>
+        <v>79</v>
+      </c>
+      <c r="E21" s="10">
+        <v>99</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="D22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C23" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="10">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E23" s="10">
-        <v>100</v>
-      </c>
-      <c r="F23" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
@@ -5654,49 +4613,81 @@
         <v>164</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="23"/>
+        <v>166</v>
+      </c>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>174</v>
+      <c r="B25" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="C25" s="10">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D25" s="10">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="E25" s="10">
-        <v>94</v>
-      </c>
-      <c r="F25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="C26" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="37">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -5704,78 +4695,550 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE69C378-7CEF-4D0C-943B-C5293127ACA7}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>88</v>
+      </c>
+      <c r="D3" s="10">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10">
+        <v>99</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10">
+        <v>52</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>97</v>
+      </c>
+      <c r="D7" s="10">
+        <v>54</v>
+      </c>
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>99</v>
+      </c>
+      <c r="D9" s="10">
+        <v>99</v>
+      </c>
+      <c r="E9" s="10">
+        <v>98</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>81</v>
+      </c>
+      <c r="D11" s="10">
+        <v>95</v>
+      </c>
+      <c r="E11" s="10">
+        <v>44</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>36</v>
+      </c>
+      <c r="E13" s="10">
+        <v>96</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>47</v>
+      </c>
+      <c r="D15" s="10">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10">
+        <v>48</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>98</v>
+      </c>
+      <c r="D17" s="10">
+        <v>67</v>
+      </c>
+      <c r="E17" s="10">
+        <v>99</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>9</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>84</v>
+      </c>
+      <c r="D19" s="10">
+        <v>85</v>
+      </c>
+      <c r="E19" s="10">
+        <v>87</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="10">
+        <v>99</v>
+      </c>
+      <c r="D21" s="10">
+        <v>99</v>
+      </c>
+      <c r="E21" s="10">
+        <v>100</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
+        <v>99</v>
+      </c>
+      <c r="E23" s="10">
+        <v>95</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>12</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="10">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10">
+        <v>78</v>
+      </c>
+      <c r="E25" s="10">
+        <v>77</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73946DF-36BA-430D-9B02-A367DD4E7DD9}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB9F02B-1A08-466C-8127-2C1E153A2A6A}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -5785,422 +5248,424 @@
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="10">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E3" s="10">
-        <v>99</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>169</v>
+        <v>100</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
         <v>164</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="23"/>
+        <v>164</v>
+      </c>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="10">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10">
         <v>99</v>
       </c>
       <c r="E5" s="10">
-        <v>100</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>175</v>
+        <v>99</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="29" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="10">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D7" s="10">
         <v>99</v>
       </c>
       <c r="E7" s="10">
-        <v>99</v>
-      </c>
-      <c r="F7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="10">
         <v>99</v>
       </c>
       <c r="D9" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="10">
-        <v>78</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>177</v>
+        <v>100</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="29" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="10">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D11" s="10">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E11" s="10">
-        <v>99</v>
-      </c>
-      <c r="F11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="23"/>
+        <v>172</v>
+      </c>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="10">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="10">
-        <v>99</v>
-      </c>
-      <c r="F13" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D15" s="10">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E15" s="10">
+        <v>86</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
         <v>98</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>8</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="10">
-        <v>96</v>
-      </c>
       <c r="D17" s="10">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E17" s="10">
         <v>99</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>177</v>
+      <c r="F17" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="10">
-        <v>64</v>
-      </c>
-      <c r="F19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="10">
+        <v>99</v>
+      </c>
+      <c r="D21" s="10">
+        <v>99</v>
+      </c>
+      <c r="E21" s="10">
+        <v>100</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="13">
-        <v>99</v>
-      </c>
-      <c r="D21" s="13">
-        <v>99</v>
-      </c>
-      <c r="E21" s="13">
-        <v>100</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C23" s="10">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D23" s="10">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E23" s="10">
-        <v>99</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>169</v>
+        <v>61</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="23"/>
+        <v>172</v>
+      </c>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="10">
-        <v>43</v>
+      <c r="B25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13">
+        <v>64</v>
       </c>
       <c r="D25" s="10">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E25" s="10">
         <v>99</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>176</v>
+      <c r="F25" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="C26" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="37">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -6237,48 +5702,47 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
     <mergeCell ref="F25:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7118C7DD-D063-4FB7-8E1E-913536BEA5FB}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A17526-1A85-46EF-B7A0-CEFEEDB9C956}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9">
         <v>1</v>
       </c>
@@ -6288,33 +5752,33 @@
       <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E3" s="10">
-        <v>100</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>177</v>
+        <v>99</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>164</v>
@@ -6322,269 +5786,269 @@
       <c r="E4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="10">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D5" s="10">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E5" s="10">
-        <v>99</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>177</v>
+        <v>92</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="29" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10">
         <v>99</v>
       </c>
       <c r="E7" s="10">
-        <v>99</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>175</v>
+        <v>92</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="10">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D9" s="10">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E9" s="10">
-        <v>99</v>
-      </c>
-      <c r="F9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>170</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="29" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="10">
         <v>99</v>
       </c>
       <c r="D11" s="10">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E11" s="10">
-        <v>28</v>
-      </c>
-      <c r="F11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="10">
-        <v>89</v>
-      </c>
-      <c r="D13" s="10">
-        <v>99</v>
-      </c>
-      <c r="E13" s="10">
-        <v>99</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>167</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="29">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="10">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D15" s="10">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E15" s="10">
-        <v>99</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>176</v>
+        <v>78</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>157</v>
       </c>
       <c r="C17" s="10">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D17" s="10">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E17" s="10">
-        <v>58</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>175</v>
+        <v>100</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="10">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E19" s="10">
-        <v>100</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>176</v>
+        <v>99</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="11" t="s">
         <v>164</v>
       </c>
@@ -6594,42 +6058,46 @@
       <c r="E20" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="29">
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>183</v>
+      <c r="C21" s="10">
+        <v>99</v>
       </c>
       <c r="D21" s="10">
-        <v>24</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="E21" s="10">
+        <v>60</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
       <c r="B22" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="D22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -6644,12 +6112,12 @@
       <c r="E23" s="10">
         <v>100</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11" t="s">
         <v>173</v>
       </c>
@@ -6657,49 +6125,51 @@
         <v>164</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>12</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="10">
-        <v>60</v>
+      <c r="B25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13">
+        <v>99</v>
       </c>
       <c r="D25" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="10">
         <v>99</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>175</v>
+      <c r="F25" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="C26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="37">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -6731,6 +6201,978 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FED96E-7886-433A-9289-8A2020F935CB}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>92</v>
+      </c>
+      <c r="D5" s="10">
+        <v>95</v>
+      </c>
+      <c r="E5" s="10">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>99</v>
+      </c>
+      <c r="D7" s="10">
+        <v>74</v>
+      </c>
+      <c r="E7" s="10">
+        <v>80</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10">
+        <v>84</v>
+      </c>
+      <c r="E9" s="10">
+        <v>48</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10">
+        <v>99</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>100</v>
+      </c>
+      <c r="D13" s="10">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>99</v>
+      </c>
+      <c r="D15" s="10">
+        <v>96</v>
+      </c>
+      <c r="E15" s="10">
+        <v>94</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>73</v>
+      </c>
+      <c r="D17" s="10">
+        <v>100</v>
+      </c>
+      <c r="E17" s="10">
+        <v>99</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>9</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10">
+        <v>96</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="10">
+        <v>98</v>
+      </c>
+      <c r="D21" s="10">
+        <v>98</v>
+      </c>
+      <c r="E21" s="10">
+        <v>98</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>99</v>
+      </c>
+      <c r="D23" s="10">
+        <v>68</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13">
+        <v>99</v>
+      </c>
+      <c r="D25" s="13">
+        <v>93</v>
+      </c>
+      <c r="E25" s="13">
+        <v>100</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04000B9-11A2-439A-84D6-38C2103A3796}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="A1:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10">
+        <v>94</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>97</v>
+      </c>
+      <c r="D5" s="10">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10">
+        <v>99</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>93</v>
+      </c>
+      <c r="D9" s="10">
+        <v>99</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>55</v>
+      </c>
+      <c r="D11" s="10">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>97</v>
+      </c>
+      <c r="D15" s="10">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10">
+        <v>100</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>68</v>
+      </c>
+      <c r="D17" s="10">
+        <v>92</v>
+      </c>
+      <c r="E17" s="10">
+        <v>52</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-52</v>
+      </c>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>9</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>48</v>
+      </c>
+      <c r="D19" s="10">
+        <v>22</v>
+      </c>
+      <c r="E19" s="10">
+        <v>99</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="10">
+        <v>100</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
+        <v>100</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>12</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="10">
+        <v>55</v>
+      </c>
+      <c r="D25" s="10">
+        <v>99</v>
+      </c>
+      <c r="E25" s="10">
+        <v>94</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="F25:F26"/>
@@ -6740,6 +7182,1042 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73946DF-36BA-430D-9B02-A367DD4E7DD9}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>73</v>
+      </c>
+      <c r="D3" s="10">
+        <v>91</v>
+      </c>
+      <c r="E3" s="10">
+        <v>99</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10">
+        <v>100</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>99</v>
+      </c>
+      <c r="D9" s="10">
+        <v>99</v>
+      </c>
+      <c r="E9" s="10">
+        <v>78</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>81</v>
+      </c>
+      <c r="D11" s="10">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10">
+        <v>99</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>100</v>
+      </c>
+      <c r="D13" s="10">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>85</v>
+      </c>
+      <c r="D15" s="10">
+        <v>99</v>
+      </c>
+      <c r="E15" s="10">
+        <v>98</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10">
+        <v>99</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>9</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10">
+        <v>64</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="13">
+        <v>99</v>
+      </c>
+      <c r="D21" s="13">
+        <v>99</v>
+      </c>
+      <c r="E21" s="13">
+        <v>100</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>99</v>
+      </c>
+      <c r="D23" s="10">
+        <v>100</v>
+      </c>
+      <c r="E23" s="10">
+        <v>99</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13">
+        <v>43</v>
+      </c>
+      <c r="D25" s="10">
+        <v>59</v>
+      </c>
+      <c r="E25" s="10">
+        <v>99</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7118C7DD-D063-4FB7-8E1E-913536BEA5FB}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>99</v>
+      </c>
+      <c r="D3" s="10">
+        <v>75</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="10">
+        <v>88</v>
+      </c>
+      <c r="D5" s="10">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10">
+        <v>99</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="10">
+        <v>99</v>
+      </c>
+      <c r="D7" s="10">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10">
+        <v>72</v>
+      </c>
+      <c r="E9" s="10">
+        <v>99</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="10">
+        <v>99</v>
+      </c>
+      <c r="D11" s="10">
+        <v>94</v>
+      </c>
+      <c r="E11" s="10">
+        <v>28</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="10">
+        <v>89</v>
+      </c>
+      <c r="D13" s="10">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10">
+        <v>99</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="10">
+        <v>99</v>
+      </c>
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="10">
+        <v>99</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="10">
+        <v>39</v>
+      </c>
+      <c r="D17" s="10">
+        <v>99</v>
+      </c>
+      <c r="E17" s="10">
+        <v>58</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>9</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10">
+        <v>100</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="10">
+        <v>24</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10">
+        <v>99</v>
+      </c>
+      <c r="E23" s="10">
+        <v>100</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="13">
+        <v>60</v>
+      </c>
+      <c r="D25" s="10">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10">
+        <v>99</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6815,10 +8293,10 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -6893,7 +8371,7 @@
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6904,7 +8382,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
@@ -6950,11 +8428,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -6964,6 +8437,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6988,10 +8466,10 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -7066,7 +8544,7 @@
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7077,7 +8555,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
@@ -7086,7 +8564,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -7097,7 +8575,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
@@ -7134,11 +8612,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B14:C14"/>
@@ -7148,6 +8621,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7172,10 +8650,10 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -7250,7 +8728,7 @@
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7261,35 +8739,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>63</v>
@@ -7333,11 +8811,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -7347,6 +8820,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7371,10 +8849,10 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -7449,7 +8927,7 @@
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7460,7 +8938,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
@@ -7506,11 +8984,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -7520,6 +8993,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7544,10 +9022,10 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -7622,7 +9100,7 @@
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7633,7 +9111,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>77</v>
       </c>
@@ -7642,14 +9120,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>78</v>
       </c>
@@ -7658,14 +9136,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -7676,7 +9154,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="8" t="s">
         <v>81</v>
       </c>
@@ -7713,11 +9191,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B17:C17"/>
@@ -7727,6 +9200,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7751,10 +9229,10 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -7829,7 +9307,7 @@
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -7840,14 +9318,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="8" t="s">
         <v>88</v>
       </c>
@@ -7856,7 +9334,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
         <v>90</v>
       </c>
@@ -7865,7 +9343,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -7876,7 +9354,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
         <v>81</v>
       </c>
@@ -7913,11 +9391,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B16:C16"/>
@@ -7927,6 +9400,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
